--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2395319.053884369</v>
+        <v>2492717.704974742</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.09535993</v>
+        <v>6663746.095359932</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>314.7046426747293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.5047714517433</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.57883526424544</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.2443341810084</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -792,13 +794,13 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>187.3656391371579</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9897763951769</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>49.85619756739318</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>49.98074158366392</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>141.0102149207193</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>351.5540542525927</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>196.7218456862865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>116.2349668968044</v>
+        <v>361.647819686858</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.77936158463006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>84.44981107328465</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.82728187716211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>43.38576124654298</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>45.5598710875588</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.9097513261782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.20336815348</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>128.4325332982424</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>95.97539145407615</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>145.3876275173463</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>43.08809953848883</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>27.19006412747668</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.19292662790583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>126.9676507177429</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>72.23824901641981</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>19.88471653142286</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>98.93144715836961</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>86.14257700143615</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.4180747895724</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4025801238258</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>32.65289103225278</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>94.98017446060464</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>37.5961770881317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.776823172149</v>
+        <v>1134.444107059279</v>
       </c>
       <c r="C2" t="n">
-        <v>1234.814306231737</v>
+        <v>1134.444107059279</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5486076249866</v>
+        <v>776.1784084525289</v>
       </c>
       <c r="E2" t="n">
-        <v>876.5486076249866</v>
+        <v>776.1784084525289</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>365.1925036629213</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060712</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.5640925927191</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811681</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684989</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684989</v>
+        <v>2109.431301222159</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684989</v>
+        <v>2109.431301222159</v>
       </c>
       <c r="U2" t="n">
-        <v>2346.684810418075</v>
+        <v>1855.646326378662</v>
       </c>
       <c r="V2" t="n">
-        <v>2346.684810418075</v>
+        <v>1524.583439035091</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.916155147961</v>
+        <v>1524.583439035091</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.916155147961</v>
+        <v>1524.583439035091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.776823172149</v>
+        <v>1134.444107059279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>850.791617806416</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>676.338588525289</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>527.4041788640377</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>368.1667238585821</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4404,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683009</v>
+        <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422598</v>
+        <v>338.9063907138126</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852925</v>
+        <v>710.5174612568451</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874814</v>
+        <v>1196.149274459034</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1710.341330101582</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2114.310927191454</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2212.781883695909</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684989</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2204.39754772578</v>
+        <v>2144.55478592678</v>
       </c>
       <c r="T3" t="n">
-        <v>2004.893864886512</v>
+        <v>1945.051103087512</v>
       </c>
       <c r="U3" t="n">
-        <v>1776.714037348722</v>
+        <v>1755.792881736847</v>
       </c>
       <c r="V3" t="n">
-        <v>1776.714037348722</v>
+        <v>1520.640773505104</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1266.403416776903</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1058.55191657137</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>850.791617806416</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181587</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896739</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885926</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="T4" t="n">
-        <v>564.479279732</v>
+        <v>386.9753263932391</v>
       </c>
       <c r="U4" t="n">
-        <v>275.2985771117171</v>
+        <v>97.79462377295624</v>
       </c>
       <c r="V4" t="n">
-        <v>275.2985771117171</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="W4" t="n">
-        <v>275.2985771117171</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4565,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>2181.248772231163</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4673,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.090004781549</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.090004781549</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5038,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.99303492678</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3763.957685256235</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,16 +5132,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>823.6560115477723</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,43 +5266,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464783</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294612</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353394</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3851.47275672694</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946816</v>
@@ -5309,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
@@ -5376,7 +5378,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.6864413838516</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C16" t="n">
-        <v>709.6864413838516</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D16" t="n">
-        <v>559.5698019715159</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>411.6567083891227</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5431,10 +5433,10 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1822.689007603097</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1600.922392172623</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1311.819525298267</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208122</v>
+        <v>1311.819525298267</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838516</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838516</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.6864413838516</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,10 +5503,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3851.47275672694</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,49 +5597,49 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7429179653792</v>
+        <v>554.7329138614813</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>385.7967309335744</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>385.7967309335744</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>385.7967309335744</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>238.906783435664</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5713,10 +5715,10 @@
         <v>964.3709295897384</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3709295897384</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3913827956189</v>
+        <v>736.381378691721</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,19 +5755,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>845.0839474760701</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1296.118160724479</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554307</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780954</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.070220408989</v>
@@ -5829,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5853,16 +5855,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.3568109459524</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>674.3568109459524</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>524.2401715336166</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>376.3270779512235</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>376.3270779512235</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1124.058268012313</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459524</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5974,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5990,31 +5992,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686787</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522033</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
         <v>4461.783306331037</v>
@@ -6023,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.8310435707792</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8948606428723</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.946126648453</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V25" t="n">
-        <v>1191.261638442566</v>
+        <v>1430.553952576414</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.261638442566</v>
+        <v>1141.136782539453</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2720875445491</v>
+        <v>913.1472316414357</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.479508401019</v>
+        <v>692.3546524979056</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.70670236413</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193958</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420605</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.97392775006</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6300,31 +6302,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>540.4807149410336</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6411,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1822.989675995071</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1822.989675995071</v>
       </c>
       <c r="U28" t="n">
-        <v>1425.595798018708</v>
+        <v>1822.989675995071</v>
       </c>
       <c r="V28" t="n">
-        <v>1170.911309812821</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="W28" t="n">
-        <v>1170.911309812821</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X28" t="n">
-        <v>942.9217589148035</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y28" t="n">
-        <v>722.1291797712734</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620956</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027649</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906986</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6564,28 +6566,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>270.9417306852379</v>
+        <v>657.7758834233814</v>
       </c>
       <c r="C31" t="n">
-        <v>243.4741280307875</v>
+        <v>488.8397004954745</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>488.8397004954745</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839444</v>
+        <v>488.8397004954745</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839444</v>
+        <v>488.8397004954745</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>321.1368638701935</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570251</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590077</v>
+        <v>1060.216927397151</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154776</v>
+        <v>839.4243482536211</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6700,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>781.1514798657287</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>781.1514798657287</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>631.0348404533929</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>483.1217468709998</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>336.2317993730894</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>168.5289627478084</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1432.974937004621</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1432.974937004621</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.974937004621</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.985386106604</v>
+        <v>962.7999446959684</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>962.7999446959684</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195856</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>3195.001976422503</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6962,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>876.4469737784534</v>
+        <v>589.1512925299509</v>
       </c>
       <c r="C37" t="n">
-        <v>707.5107908505465</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D37" t="n">
-        <v>557.3941514382108</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.330762062848</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.330762062848</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V37" t="n">
-        <v>1614.646273856961</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W37" t="n">
-        <v>1325.229103820001</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X37" t="n">
-        <v>1097.239552921983</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y37" t="n">
-        <v>876.4469737784534</v>
+        <v>770.7997573601906</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7184,34 +7186,34 @@
         <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686432</v>
+        <v>3511.079945518568</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.82776704361</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7251,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>968.1854134651288</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>799.2492305372219</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7357,25 +7359,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208122</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838516</v>
+        <v>1377.823429193386</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858343</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423041</v>
+        <v>1149.833878295369</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,43 +7414,43 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846824</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518748</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.5269503710301</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5907674431232</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1736.744900323061</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1447.642033448704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1192.957545242817</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="W43" t="n">
-        <v>1192.957545242817</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="X43" t="n">
-        <v>964.9679943448</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.1754152012699</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7630,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7652,22 +7654,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.425187676631</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7743,10 +7745,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7840,16 +7842,16 @@
         <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.264662777688</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.847492740728</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.85794184271</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>53.6094874453532</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>107.6070190727114</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>37.13651117804488</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>388.4310778980897</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>226.7688596193122</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476846</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>226.7688596193122</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>229.1155640189937</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701136</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277322</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10123,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>130.0020851999097</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,13 +10600,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>169.5026663584987</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10832,19 +10834,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>36.48628322062233</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792226</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>288.0478149561043</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619365</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>141.2598443157525</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.59376614576914</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>146.3832640848989</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4659371714694</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.6749020259166</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.82244010554825</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>123.7051100255856</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>190.2364467515367</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>106.7500158064817</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>146.6809257929531</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>259.0217740781362</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>140.053894470722</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>17.78736419657787</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.51676589790097</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>266.32712167419</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>68.31537394025823</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.406372274733</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>6.197398228639912</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146369152343368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>219.4847522915752</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.85180572133265</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>214.5414662356963</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="G2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="H2" t="n">
         <v>615476.7696748241</v>
       </c>
-      <c r="H2" t="n">
-        <v>615476.7696748242</v>
-      </c>
       <c r="I2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="K2" t="n">
         <v>615476.769674824</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748239</v>
       </c>
       <c r="L2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="M2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="O2" t="n">
         <v>615476.7696748235</v>
       </c>
-      <c r="N2" t="n">
-        <v>615476.769674824</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748237</v>
-      </c>
       <c r="P2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748235</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106471</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744694</v>
+        <v>91792.63957446998</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220086</v>
+        <v>21342.09858220099</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861106</v>
+        <v>244465.9635861107</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
@@ -26427,37 +26429,37 @@
         <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="L4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="G4" t="n">
-        <v>32032.95503079771</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
+        <v>32032.95503079773</v>
+      </c>
+      <c r="N4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="P4" t="n">
         <v>32032.95503079773</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32032.95503079774</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079774</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32032.95503079771</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.95503079771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26485,16 +26487,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177811.3824833401</v>
+        <v>-177811.3824833394</v>
       </c>
       <c r="C6" t="n">
-        <v>242875.3290086057</v>
+        <v>242875.3290086054</v>
       </c>
       <c r="D6" t="n">
-        <v>334667.9685830752</v>
+        <v>334667.9685830753</v>
       </c>
       <c r="E6" t="n">
-        <v>-240317.1176030942</v>
+        <v>-240317.1176030944</v>
       </c>
       <c r="F6" t="n">
         <v>487060.2963903127</v>
       </c>
       <c r="G6" t="n">
+        <v>487060.2963903124</v>
+      </c>
+      <c r="H6" t="n">
         <v>487060.2963903127</v>
       </c>
-      <c r="H6" t="n">
-        <v>487060.2963903128</v>
-      </c>
       <c r="I6" t="n">
-        <v>487060.2963903126</v>
+        <v>487060.2963903123</v>
       </c>
       <c r="J6" t="n">
         <v>332333.7607070964</v>
       </c>
       <c r="K6" t="n">
-        <v>465718.1978081116</v>
+        <v>465718.1978081117</v>
       </c>
       <c r="L6" t="n">
         <v>487060.2963903123</v>
@@ -26555,13 +26557,13 @@
         <v>357417.9815513674</v>
       </c>
       <c r="N6" t="n">
-        <v>487060.2963903126</v>
+        <v>487060.2963903123</v>
       </c>
       <c r="O6" t="n">
-        <v>487060.2963903124</v>
+        <v>487060.2963903121</v>
       </c>
       <c r="P6" t="n">
-        <v>487060.2963903125</v>
+        <v>487060.2963903121</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353718</v>
+        <v>71.38374637353763</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330819</v>
+        <v>82.9244450833087</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712476</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330819</v>
+        <v>82.9244450833087</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330819</v>
+        <v>82.9244450833087</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.36649718073318</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>232.6682898308173</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,13 +27514,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.53239012525412</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>49.70520676574273</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27555,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>54.30080173848786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.90169565731848</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27588,19 +27590,19 @@
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>175.7289138053724</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>202.1569017401641</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>186.7420435494156</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>18.17704642587637</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>89.80115265030452</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>249.0379248742031</v>
+        <v>3.625072084149565</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.82361682150341</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.8052917674647</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672558</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452633</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589792</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940639</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978844</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380461</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540488</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014104</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.2575376440367</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247342</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302322</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382925</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.1160287633835</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163473</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654161</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967068</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818492</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509106</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448198</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.59941087502155</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361415</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395904</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230449</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.2603475943759</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400316</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.627737090263658</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084092</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32096,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -34463,7 +34465,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302134</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249171</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222135</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777895</v>
+        <v>61.51094631777885</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935234</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527158</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>99.46561263076262</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920821</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719798</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>435.8984973974165</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>844.0211922904216</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>625.5308458386838</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265651</v>
@@ -35890,22 +35892,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779111</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>625.5308458386838</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>566.3068505743942</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>539.157696425514</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200641</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36841,19 +36843,19 @@
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>682.303920612821</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37081,16 +37083,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
         <v>988.434649323059</v>
@@ -37318,13 +37320,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>677.5556672467177</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>96.09948176284705</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37780,16 +37782,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502542</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>840.3496503690155</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509644</v>
@@ -37801,7 +37803,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464202</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492717.704974742</v>
+        <v>2486977.590266524</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.7046426747293</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517433</v>
+        <v>72.50477145174311</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>16.01710739205665</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810084</v>
+        <v>59.24433418100831</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,7 +794,7 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>187.3656391371579</v>
+        <v>56.72780944128707</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>49.98074158366392</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>69.35489924701432</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>108.0481078432936</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>141.0102149207193</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>197.8509087195822</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>361.647819686858</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>289.8526611205789</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>216.6993815150876</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>67.41386939711184</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>84.44981107328465</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.607764387321</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>43.38576124654298</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.5598710875588</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>81.1740025376955</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>128.4325332982424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>145.3876275173463</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>267.5605446743765</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.08809953848883</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>126.9676507177429</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.23824901641981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>98.93144715836961</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>111.9811935083357</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.4180747895724</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>15.07397285531734</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>32.65289103225278</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.98017446060464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.444107059279</v>
+        <v>1245.511124565398</v>
       </c>
       <c r="C2" t="n">
-        <v>1134.444107059279</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="D2" t="n">
-        <v>776.1784084525289</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="E2" t="n">
-        <v>776.1784084525289</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="F2" t="n">
-        <v>365.1925036629213</v>
+        <v>465.5627028353791</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.0764468060715</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927191</v>
+        <v>769.5640925927203</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811681</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633672</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054132</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804439</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222159</v>
+        <v>2276.035271448829</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222159</v>
+        <v>2276.035271448829</v>
       </c>
       <c r="U2" t="n">
-        <v>1855.646326378662</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="V2" t="n">
-        <v>1524.583439035091</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="W2" t="n">
-        <v>1524.583439035091</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.583439035091</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="Y2" t="n">
-        <v>1134.444107059279</v>
+        <v>1632.11096462952</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.791617806416</v>
+        <v>814.5336845195542</v>
       </c>
       <c r="C3" t="n">
-        <v>676.338588525289</v>
+        <v>640.0806552384272</v>
       </c>
       <c r="D3" t="n">
-        <v>527.4041788640377</v>
+        <v>491.146245577176</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1667238585821</v>
+        <v>331.9087905717205</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6321658854671</v>
+        <v>185.3742325986055</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683008</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138126</v>
+        <v>338.906390713813</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568451</v>
+        <v>710.517461256846</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459034</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101582</v>
+        <v>1501.594138030031</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191454</v>
+        <v>1905.563735119903</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695909</v>
+        <v>2212.781883695912</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2305.608548885993</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.55478592678</v>
+        <v>2144.554785926784</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087512</v>
+        <v>1945.051103087515</v>
       </c>
       <c r="U3" t="n">
-        <v>1755.792881736847</v>
+        <v>1887.750285470053</v>
       </c>
       <c r="V3" t="n">
-        <v>1520.640773505104</v>
+        <v>1652.59817723831</v>
       </c>
       <c r="W3" t="n">
-        <v>1266.403416776903</v>
+        <v>1398.360820510109</v>
       </c>
       <c r="X3" t="n">
-        <v>1058.55191657137</v>
+        <v>1190.509320304576</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.791617806416</v>
+        <v>982.7490215396222</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369975</v>
+        <v>363.135156639517</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369975</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369975</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369975</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181587</v>
+        <v>88.80529410181609</v>
       </c>
       <c r="L4" t="n">
-        <v>197.432664936566</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950595</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896739</v>
+        <v>449.7398382896747</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885926</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="T4" t="n">
-        <v>386.9753263932391</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="U4" t="n">
-        <v>97.79462377295624</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="V4" t="n">
-        <v>47.30902621369975</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="W4" t="n">
-        <v>47.30902621369975</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369975</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369975</v>
+        <v>544.7836214697568</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2554.714530492243</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2554.714530492243</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2181.248772231163</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.109440255352</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="6">
@@ -4628,19 +4628,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,25 +4652,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.941371236149</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>823.6560115477723</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7198286198654</v>
+        <v>331.3586886465157</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>331.3586886465157</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>331.3586886465157</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>331.3586886465157</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>163.6558520212347</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X13" t="n">
-        <v>823.6560115477723</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.6560115477723</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2368.748013620956</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3348.500285847603</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3851.47275672694</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5369,13 +5369,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1822.689007603097</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1600.922392172623</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1311.819525298267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1311.819525298267</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1022.402355261306</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.402355261306</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>801.6097761177758</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,19 +5518,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M17" t="n">
-        <v>2368.748013620956</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N17" t="n">
-        <v>3348.500285847603</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3851.47275672694</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5542,13 +5542,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.7329138614813</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>385.7967309335744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>385.7967309335744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>385.7967309335744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>238.906783435664</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5709,16 +5709,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897384</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>736.381378691721</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.381378691721</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>432.2000540015823</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1124.058268012313</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>834.6410979753522</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>834.6410979753522</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.848518831822</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5989,46 +5989,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6080,13 +6080,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.7061876676659</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>510.7061876676659</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.553952576414</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.136782539453</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>913.1472316414357</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3546524979056</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>876.4469737784534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1822.989675995071</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.989675995071</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.989675995071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.305187789184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1278.888017752223</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1278.888017752223</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.095438608693</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422503</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6557,37 +6557,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>657.7758834233814</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>488.8397004954745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>321.1368638701935</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.206478295169</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1060.216927397151</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.4243482536211</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.447785386688</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2317.998088216516</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443163</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4243.923885728433</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4702.402088237421</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6779,19 +6779,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.1514798657287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>781.1514798657287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>631.0348404533929</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>483.1217468709998</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>336.2317993730894</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>168.5289627478084</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>962.7999446959684</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>962.7999446959684</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589.1512925299509</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C37" t="n">
-        <v>489.220537824527</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D37" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E37" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1288.206478295169</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>998.7893082582079</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>770.7997573601906</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.7997573601906</v>
+        <v>560.2704579839216</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3008.107474639231</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3511.079945518568</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4224.435032965514</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4682.913235474502</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7250,31 +7250,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>968.1854134651288</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>799.2492305372219</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
         <v>344.6708498442063</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.240599230347</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>1377.823429193386</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>1149.833878295369</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>1149.833878295369</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277728</v>
@@ -7417,25 +7417,25 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M41" t="n">
-        <v>1770.231306037952</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
@@ -7502,16 +7502,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.5338801960603</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5976972681534</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
         <v>344.6708498442063</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1749.431346724138</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1460.328479849782</v>
       </c>
       <c r="V43" t="n">
-        <v>1130.97492416983</v>
+        <v>1460.328479849782</v>
       </c>
       <c r="W43" t="n">
-        <v>1130.97492416983</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.97492416983</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y43" t="n">
-        <v>910.1823450263</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="44">
@@ -7624,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946816</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7742,7 +7742,7 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894816</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>268.4866247763287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727114</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>226.7688596193122</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>297.8289162490814</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>226.7688596193122</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6211785616945</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>258.6211785616945</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P29" t="n">
-        <v>103.7862464855155</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>103.7862464855152</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908877</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>36.48628322062233</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>219.3344627260158</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0478149561043</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>77.34114551720894</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>141.2598443157525</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>146.3832640848989</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>120.4659371714694</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.85180572133272</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24177,22 +24177,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>123.7051100255856</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>106.7500158064817</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>18.9624536622145</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>146.6809257929531</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>17.78736419657787</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>72.51676589790097</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>68.31537394025823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>106.603459843759</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>6.197398228639912</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>204.4749764208518</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>219.4847522915752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.85180572133265</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805549.525530735</v>
+        <v>805549.5255307349</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="I2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="K2" t="n">
         <v>615476.7696748236</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="M2" t="n">
         <v>615476.7696748235</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.769674824</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748236</v>
       </c>
       <c r="N2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.769674824</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748236</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106471</v>
+        <v>493391.6844106481</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446998</v>
+        <v>91792.6395744691</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832157</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220099</v>
+        <v>21342.09858220072</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861107</v>
+        <v>244465.9635861104</v>
       </c>
       <c r="C4" t="n">
         <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="E4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="G4" t="n">
         <v>32032.95503079772</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="J4" t="n">
         <v>32032.95503079772</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="N4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="O4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="P4" t="n">
         <v>32032.9550307977</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.95503079773</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177811.3824833394</v>
+        <v>-177811.3824833406</v>
       </c>
       <c r="C6" t="n">
-        <v>242875.3290086054</v>
+        <v>242875.3290086062</v>
       </c>
       <c r="D6" t="n">
-        <v>334667.9685830753</v>
+        <v>334667.9685830749</v>
       </c>
       <c r="E6" t="n">
-        <v>-240317.1176030944</v>
+        <v>-240989.0725053522</v>
       </c>
       <c r="F6" t="n">
-        <v>487060.2963903127</v>
+        <v>486388.3414880543</v>
       </c>
       <c r="G6" t="n">
-        <v>487060.2963903124</v>
+        <v>486388.3414880542</v>
       </c>
       <c r="H6" t="n">
-        <v>487060.2963903127</v>
+        <v>486388.3414880542</v>
       </c>
       <c r="I6" t="n">
-        <v>487060.2963903123</v>
+        <v>486388.3414880542</v>
       </c>
       <c r="J6" t="n">
-        <v>332333.7607070964</v>
+        <v>331661.8058048381</v>
       </c>
       <c r="K6" t="n">
-        <v>465718.1978081117</v>
+        <v>465046.2429058536</v>
       </c>
       <c r="L6" t="n">
-        <v>487060.2963903123</v>
+        <v>486388.341488054</v>
       </c>
       <c r="M6" t="n">
-        <v>357417.9815513674</v>
+        <v>356746.0266491095</v>
       </c>
       <c r="N6" t="n">
-        <v>487060.2963903123</v>
+        <v>486388.3414880543</v>
       </c>
       <c r="O6" t="n">
-        <v>487060.2963903121</v>
+        <v>486388.3414880548</v>
       </c>
       <c r="P6" t="n">
-        <v>487060.2963903121</v>
+        <v>486388.3414880543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353763</v>
+        <v>71.38374637353695</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9244450833087</v>
+        <v>82.92444508330789</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833087</v>
+        <v>82.92444508330766</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833087</v>
+        <v>82.92444508330789</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.36649718073318</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9379305244002</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.53239012525412</v>
+        <v>169.170219821125</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848786</v>
+        <v>54.30080173848776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731848</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27590,13 +27590,13 @@
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>202.1569017401641</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2297541050805</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>274.685733820187</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>186.7420435494156</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>88.43096552239552</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.625072084149565</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>117.0233846211325</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>69.82361682150341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672558</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212159</v>
+        <v>12.61309953212162</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452633</v>
+        <v>47.48116877452645</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676339</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015733</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787773</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589792</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095239</v>
+        <v>219.7570494095244</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811548</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579885</v>
+        <v>177.105282957989</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.998691770965</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940639</v>
+        <v>77.36434648940657</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978844</v>
+        <v>28.06503166978851</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216624</v>
+        <v>5.391318755216638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380461</v>
+        <v>0.09852781277380485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540488</v>
+        <v>0.6589628421540504</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014104</v>
+        <v>6.364193765014119</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784774</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440367</v>
+        <v>62.25753764403685</v>
       </c>
       <c r="K3" t="n">
-        <v>106.408048068358</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.07875219665</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247342</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302322</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382925</v>
+        <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723815</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633835</v>
+        <v>84.11602876338371</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163473</v>
+        <v>40.91349997163483</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422103</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945485</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276638</v>
+        <v>0.04335281856276649</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654161</v>
+        <v>0.5524523108654175</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967068</v>
+        <v>4.911803272967079</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584361</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818492</v>
+        <v>39.05837837818501</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509106</v>
+        <v>64.18491393509122</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448198</v>
+        <v>82.13459174448218</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502155</v>
+        <v>86.59941087502175</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361415</v>
+        <v>84.54027044361436</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395904</v>
+        <v>78.08662299395922</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230449</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.2603475943759</v>
+        <v>46.26034759437601</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400316</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263658</v>
+        <v>9.627737090263681</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515868</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084092</v>
+        <v>0.03013376241084099</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33040,7 +33040,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33277,7 +33277,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33514,7 +33514,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34462,10 +34462,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302134</v>
+        <v>92.58102251302159</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277575</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592405</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245389</v>
+        <v>435.4250728245395</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249171</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222135</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742017</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564202</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777885</v>
+        <v>61.51094631777899</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065776</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202349</v>
+        <v>375.3647177202353</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527158</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904525</v>
+        <v>308.530165223228</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705775</v>
+        <v>408.050098070578</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076262</v>
+        <v>310.3213621979887</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132111</v>
+        <v>154.2115424132113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920821</v>
+        <v>41.91542210920836</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047981</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368621</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228428</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079987</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719798</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265651</v>
@@ -35655,22 +35655,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>625.5308458386838</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>753.4190306414133</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>625.5308458386838</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
@@ -35965,7 +35965,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499135</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>766.6741794499135</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36688,7 +36688,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36834,22 +36834,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P29" t="n">
-        <v>502.5482327048871</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
@@ -36925,7 +36925,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>559.3763608778471</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37086,13 +37086,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>76.4137719013135</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37162,7 +37162,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>96.09948176284705</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37785,16 +37785,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>674.9245771183478</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>840.3496503690155</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486977.590266524</v>
+        <v>2490383.081390973</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174311</v>
+        <v>72.50477145174325</v>
       </c>
       <c r="S2" t="n">
-        <v>16.01710739205665</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>97.73517675960569</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>13.62198573550398</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100831</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>56.72780944128707</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.84540120450573</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731846</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.35489924701432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.0481078432936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.44420492154089</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.8509087195822</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>289.8526611205789</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>162.8990990825394</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>136.032568857899</v>
       </c>
       <c r="H13" t="n">
-        <v>67.41386939711184</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.607764387321</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>70.77558225586398</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.1740025376955</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.06561173382016</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>267.5605446743765</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9955072668612</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534537</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>40.64985028260492</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.9811935083357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.82420463792836</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>29.70905735713484</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>15.07397285531734</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>131.5730391207948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.511124565398</v>
+        <v>563.2722676043049</v>
       </c>
       <c r="C2" t="n">
-        <v>876.5486076249867</v>
+        <v>563.2722676043049</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5486076249867</v>
+        <v>563.2722676043049</v>
       </c>
       <c r="E2" t="n">
-        <v>876.5486076249867</v>
+        <v>563.2722676043049</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>556.3267668551015</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369982</v>
+        <v>542.1134942738263</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369982</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060715</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927203</v>
+        <v>769.5640925927188</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811681</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804442</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="S2" t="n">
-        <v>2276.035271448829</v>
+        <v>2109.43130122216</v>
       </c>
       <c r="T2" t="n">
-        <v>2276.035271448829</v>
+        <v>2010.708900454881</v>
       </c>
       <c r="U2" t="n">
-        <v>2022.250296605332</v>
+        <v>2010.708900454881</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.250296605332</v>
+        <v>1679.646013111311</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.250296605332</v>
+        <v>1326.877357841196</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.250296605332</v>
+        <v>953.4115995801167</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.11096462952</v>
+        <v>563.2722676043049</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.5336845195542</v>
+        <v>864.5511993574301</v>
       </c>
       <c r="C3" t="n">
-        <v>640.0806552384272</v>
+        <v>690.0981700763031</v>
       </c>
       <c r="D3" t="n">
-        <v>491.146245577176</v>
+        <v>541.1637604150518</v>
       </c>
       <c r="E3" t="n">
-        <v>331.9087905717205</v>
+        <v>381.9263054095963</v>
       </c>
       <c r="F3" t="n">
-        <v>185.3742325986055</v>
+        <v>235.3917474364813</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369982</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369982</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>108.2048630683009</v>
       </c>
       <c r="K3" t="n">
-        <v>338.906390713813</v>
+        <v>338.9063907138127</v>
       </c>
       <c r="L3" t="n">
-        <v>710.517461256846</v>
+        <v>710.5174612568453</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1196.149274459034</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1501.594138030029</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>1905.5637351199</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2212.781883695909</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087515</v>
+        <v>2165.947627845719</v>
       </c>
       <c r="U3" t="n">
-        <v>1887.750285470053</v>
+        <v>1937.767800307929</v>
       </c>
       <c r="V3" t="n">
-        <v>1652.59817723831</v>
+        <v>1702.615692076186</v>
       </c>
       <c r="W3" t="n">
-        <v>1398.360820510109</v>
+        <v>1448.378335347985</v>
       </c>
       <c r="X3" t="n">
-        <v>1190.509320304576</v>
+        <v>1240.526835142452</v>
       </c>
       <c r="Y3" t="n">
-        <v>982.7490215396222</v>
+        <v>1032.766536377498</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.135156639517</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="C4" t="n">
-        <v>194.1989737116102</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="D4" t="n">
-        <v>194.1989737116102</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="E4" t="n">
-        <v>194.1989737116102</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369982</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369982</v>
+        <v>64.32458298592778</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181609</v>
+        <v>88.80529410181593</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365664</v>
+        <v>197.4326649365661</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950601</v>
+        <v>322.3541198950597</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896747</v>
+        <v>449.7398382896741</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885935</v>
+        <v>551.3848716885929</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546197</v>
+        <v>574.5343321664185</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546197</v>
+        <v>285.1171621294579</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546197</v>
+        <v>285.1171621294579</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.7836214697568</v>
+        <v>64.32458298592778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y5" t="n">
-        <v>2105.048665729205</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>154.3916736603047</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>154.3916736603047</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4789,16 +4789,16 @@
         <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>764.6872557005402</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>371.9535023530925</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5041,13 +5041,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
         <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.866738172571</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
         <v>2055.398642844495</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500.2948715744226</v>
+        <v>401.9038525863003</v>
       </c>
       <c r="C13" t="n">
-        <v>331.3586886465157</v>
+        <v>232.9676696583934</v>
       </c>
       <c r="D13" t="n">
-        <v>331.3586886465157</v>
+        <v>232.9676696583934</v>
       </c>
       <c r="E13" t="n">
-        <v>331.3586886465157</v>
+        <v>232.9676696583934</v>
       </c>
       <c r="F13" t="n">
-        <v>331.3586886465157</v>
+        <v>232.9676696583934</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6558520212347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5199,52 +5199,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953335</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442099</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927061</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689057</v>
+        <v>1644.746393431762</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689057</v>
+        <v>1355.643526557405</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.14263648317</v>
+        <v>1100.959038351518</v>
       </c>
       <c r="W13" t="n">
-        <v>1130.72546644621</v>
+        <v>811.5418683145574</v>
       </c>
       <c r="X13" t="n">
-        <v>902.7359155481925</v>
+        <v>583.5523174165401</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.9433364046623</v>
+        <v>583.5523174165401</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871642</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318588</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1603.336637561923</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1603.336637561923</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1348.652149356036</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1348.652149356036</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432265</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5542,10 +5542,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,7 +5740,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.7083461157117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894816</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>147.1424604421522</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>147.1424604421522</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384227</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,19 +6305,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,25 +6399,25 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
         <v>1015.408799357142</v>
@@ -6445,70 +6445,70 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1915.28301127379</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1723.597127100616</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1723.597127100616</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1434.49426022626</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1179.809772020373</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>890.3926019834121</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>890.3926019834121</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,49 +6703,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175503</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.59632740215</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3530.568798281487</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4243.923885728433</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4702.402088237421</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,19 +6779,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6922,58 +6922,58 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7013,43 +7013,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.2704579839216</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C37" t="n">
-        <v>560.2704579839216</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7140,7 +7140,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.2704579839216</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7171,37 +7171,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.2420492341807</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433621</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998319</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464783</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,13 +7505,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>540.4807149410336</v>
+        <v>982.9689106783281</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>814.0327277504213</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>663.9160883380855</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>516.0029947556924</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>369.113047257782</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T43" t="n">
-        <v>1749.431346724138</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U43" t="n">
-        <v>1460.328479849782</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="V43" t="n">
-        <v>1460.328479849782</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="W43" t="n">
-        <v>1170.911309812821</v>
+        <v>1385.409954652098</v>
       </c>
       <c r="X43" t="n">
-        <v>942.9217589148035</v>
+        <v>1385.409954652098</v>
       </c>
       <c r="Y43" t="n">
-        <v>722.1291797712734</v>
+        <v>1164.617375508568</v>
       </c>
     </row>
     <row r="44">
@@ -7645,34 +7645,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946816</v>
@@ -7681,10 +7681,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
@@ -7718,28 +7718,28 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>268.4866247763287</v>
+        <v>268.4866247763279</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.047814956104</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792191</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>297.8289162490814</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>102.8529310510272</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260167</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>16.80057335908877</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>219.3344627260158</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>67.5366377670415</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476844</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>29.99323940112922</v>
       </c>
       <c r="H13" t="n">
-        <v>77.34114551720894</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>148.7733670203052</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.85180572133272</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>45.28680867601793</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>18.9624536622145</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.14213605696679</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.28230238744241</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.603459843759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>61.60975800864081</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>136.3167509018934</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>204.4749764208518</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>87.01161423129997</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>805549.525530735</v>
+        <v>805549.5255307349</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805549.5255307349</v>
+        <v>805549.525530735</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>805549.525530735</v>
+        <v>805549.5255307349</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="G2" t="n">
         <v>615476.7696748236</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748235</v>
-      </c>
       <c r="H2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748232</v>
       </c>
       <c r="J2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="M2" t="n">
         <v>615476.7696748235</v>
       </c>
       <c r="N2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748244</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106473</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744691</v>
+        <v>91792.63957446979</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832158</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220072</v>
+        <v>21342.09858220096</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861104</v>
+        <v>244465.9635861107</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
         <v>218780.324998335</v>
       </c>
       <c r="E4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="G4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="F4" t="n">
-        <v>32032.95503079771</v>
-      </c>
-      <c r="G4" t="n">
-        <v>32032.95503079772</v>
-      </c>
       <c r="H4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="L4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079764</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.95503079765</v>
       </c>
       <c r="O4" t="n">
+        <v>32032.95503079767</v>
+      </c>
+      <c r="P4" t="n">
         <v>32032.95503079769</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177811.3824833406</v>
+        <v>-177811.3824833396</v>
       </c>
       <c r="C6" t="n">
-        <v>242875.3290086062</v>
+        <v>242875.3290086051</v>
       </c>
       <c r="D6" t="n">
-        <v>334667.9685830749</v>
+        <v>334667.9685830751</v>
       </c>
       <c r="E6" t="n">
-        <v>-240989.0725053522</v>
+        <v>-240384.3130933201</v>
       </c>
       <c r="F6" t="n">
-        <v>486388.3414880543</v>
+        <v>486993.1009000866</v>
       </c>
       <c r="G6" t="n">
-        <v>486388.3414880542</v>
+        <v>486993.1009000864</v>
       </c>
       <c r="H6" t="n">
-        <v>486388.3414880542</v>
+        <v>486993.1009000862</v>
       </c>
       <c r="I6" t="n">
-        <v>486388.3414880542</v>
+        <v>486993.1009000859</v>
       </c>
       <c r="J6" t="n">
-        <v>331661.8058048381</v>
+        <v>332266.5652168703</v>
       </c>
       <c r="K6" t="n">
-        <v>465046.2429058536</v>
+        <v>465651.0023178857</v>
       </c>
       <c r="L6" t="n">
-        <v>486388.341488054</v>
+        <v>486993.1009000866</v>
       </c>
       <c r="M6" t="n">
-        <v>356746.0266491095</v>
+        <v>357350.7860611418</v>
       </c>
       <c r="N6" t="n">
-        <v>486388.3414880543</v>
+        <v>486993.1009000865</v>
       </c>
       <c r="O6" t="n">
-        <v>486388.3414880548</v>
+        <v>486993.1009000867</v>
       </c>
       <c r="P6" t="n">
-        <v>486388.3414880543</v>
+        <v>486993.1009000873</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353695</v>
+        <v>71.38374637353746</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330766</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9379305244002</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>119.969354049309</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.0625685855526</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356729</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100838</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>169.170219821125</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>140.4699680299668</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848776</v>
+        <v>54.30080173848783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731838</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.2297541050805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.685733820187</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>27.98162540605469</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.97684310139036</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>88.43096552239552</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>117.0233846211325</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>250.8850709382556</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>74.00725420552284</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.157518219205768e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672559</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452645</v>
+        <v>47.48116877452636</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015736</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787775</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589797</v>
+        <v>216.2577725589793</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.757049409524</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811553</v>
+        <v>207.510350181155</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579886</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940657</v>
+        <v>77.36434648940643</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978846</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216638</v>
+        <v>5.391318755216628</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380485</v>
+        <v>0.09852781277380467</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540504</v>
+        <v>0.6589628421540492</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014119</v>
+        <v>6.364193765014107</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784779</v>
+        <v>22.68797504784775</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403685</v>
+        <v>62.25753764403674</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247343</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302323</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382926</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723816</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338371</v>
+        <v>84.11602876338355</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163476</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422104</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945491</v>
+        <v>2.656082683945487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276649</v>
+        <v>0.04335281856276641</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654175</v>
+        <v>0.5524523108654165</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967079</v>
+        <v>4.91180327296707</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818501</v>
+        <v>39.05837837818494</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509122</v>
+        <v>64.1849139350911</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448218</v>
+        <v>82.13459174448202</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502175</v>
+        <v>86.59941087502159</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361436</v>
+        <v>84.5402704436142</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395922</v>
+        <v>78.08662299395908</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230464</v>
+        <v>66.81659585230453</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437592</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400322</v>
+        <v>24.84026481400317</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263681</v>
+        <v>9.627737090263663</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515874</v>
+        <v>2.36047805551587</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302159</v>
+        <v>92.5810225130214</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592406</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.425072824539</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249176</v>
+        <v>427.6909102249172</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222139</v>
+        <v>358.2123200222136</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742018</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564205</v>
+        <v>123.0079925564203</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777899</v>
+        <v>61.51094631777888</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065778</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>375.364717720235</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527159</v>
       </c>
       <c r="N3" t="n">
-        <v>308.530165223228</v>
+        <v>308.5301652232268</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.0500980705776</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>310.3213621979885</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920836</v>
+        <v>41.91542210920825</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368622</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719813</v>
+        <v>64.09515511719802</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115044</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306976</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014663</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>753.4190306414133</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>501.614917270399</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814171</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>76.4137719013135</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>674.9245771183478</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359034</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
